--- a/test/results/directive-compatibility/_RESULTS.xlsx
+++ b/test/results/directive-compatibility/_RESULTS.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="142">
   <si>
     <t>android_Amazon-Kindle-Fire-2_4.0_portrait.png</t>
   </si>
@@ -445,6 +445,9 @@
   </si>
   <si>
     <t>Fix needed</t>
+  </si>
+  <si>
+    <t>Headers not set</t>
   </si>
 </sst>
 </file>
@@ -550,11 +553,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="306">
+  <cellStyleXfs count="318">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -870,7 +885,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="306">
+  <cellStyles count="318">
     <cellStyle name="Besuchter Link" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="9" builtinId="9" hidden="1"/>
@@ -1022,6 +1037,12 @@
     <cellStyle name="Besuchter Link" xfId="301" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="303" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="317" builtinId="9" hidden="1"/>
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
@@ -1174,6 +1195,12 @@
     <cellStyle name="Link" xfId="300" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="302" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="304" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="306" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="308" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="310" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="312" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="314" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="316" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1510,7 +1537,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="K96" sqref="K96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5273,10 +5300,10 @@
         <v>103</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="L96" s="7" t="s">
-        <v>127</v>
+        <v>141</v>
+      </c>
+      <c r="L96" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5337,10 +5364,10 @@
         <v>103</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="L98" s="7" t="s">
-        <v>127</v>
+        <v>141</v>
+      </c>
+      <c r="L98" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5433,10 +5460,10 @@
         <v>103</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="L101" s="7" t="s">
-        <v>127</v>
+        <v>141</v>
+      </c>
+      <c r="L101" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5465,10 +5492,10 @@
         <v>103</v>
       </c>
       <c r="K102" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="L102" s="7" t="s">
-        <v>127</v>
+        <v>141</v>
+      </c>
+      <c r="L102" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5497,10 +5524,10 @@
         <v>103</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="L103" s="7" t="s">
-        <v>127</v>
+        <v>141</v>
+      </c>
+      <c r="L103" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5529,10 +5556,10 @@
         <v>103</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="L104" s="7" t="s">
-        <v>127</v>
+        <v>141</v>
+      </c>
+      <c r="L104" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5593,10 +5620,10 @@
         <v>103</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="L106" s="7" t="s">
-        <v>127</v>
+        <v>141</v>
+      </c>
+      <c r="L106" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
